--- a/SortingMadness.xlsx
+++ b/SortingMadness.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monks\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D8A3BD-A95F-4772-AC49-1DDABECD4BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="495" windowWidth="27780" windowHeight="16440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
-    <sheet name="Sprint Backlog #1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint Backlog #2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sprint Backlog #1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -131,12 +138,21 @@
   <si>
     <t>Implementacja REST</t>
   </si>
+  <si>
+    <t>TESTY JEDNOSTKOWE</t>
+  </si>
+  <si>
+    <t>TESTY MOCK</t>
+  </si>
+  <si>
+    <t>zrobic testy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,7 +252,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -262,14 +278,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -299,9 +309,9 @@
     <cellStyle name="Odwiedzone hiperłącze" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Odwiedzone hiperłącze" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
@@ -323,19 +333,41 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -364,26 +396,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:E8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:E8" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Element rejestru produktu" dataDxfId="8"/>
-    <tableColumn id="2" name="Ważność" dataDxfId="7"/>
-    <tableColumn id="3" name="Pracochłonność" dataDxfId="6"/>
-    <tableColumn id="4" name="Business Value (BV)" dataDxfId="5"/>
-    <tableColumn id="5" name="Kryteria akceptacji" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Element rejestru produktu" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ważność" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pracochłonność" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Business Value (BV)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kryteria akceptacji" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="A4:C43" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A4:C43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14900E1D-68A8-485A-91F0-FC6BBC2FA683}" name="Tabela32" displayName="Tabela32" ref="A4:C43" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A4:C43" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Element rejestru produktu" dataDxfId="2"/>
-    <tableColumn id="2" name="Zadania" dataDxfId="1"/>
-    <tableColumn id="3" name="Pracochłonność " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DAF5CCDF-B2E9-4CD2-BFE0-F30BB422E31B}" name="Element rejestru produktu" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A943C07E-B63A-4AD3-BD1B-4118990F000E}" name="Zadania" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E394E829-2E48-4DE2-8E77-60522BF5E5E3}" name="Pracochłonność " dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela3" displayName="Tabela3" ref="A4:C43" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A4:C43" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Element rejestru produktu" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Zadania" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pracochłonność " dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -710,32 +754,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="111" customWidth="1"/>
     <col min="2" max="2" width="64.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105.6" customHeight="1">
+    <row r="2" spans="1:2" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
     </row>
   </sheetData>
@@ -750,14 +794,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
@@ -766,7 +810,7 @@
     <col min="5" max="5" width="58.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -783,41 +827,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="110.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>20</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>10</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="126">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>15</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>10</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>1.5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="157.5">
+    <row r="4" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -834,41 +878,41 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="47.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>12</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>1</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="126">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>10</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>3</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="63">
+    <row r="7" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -885,20 +929,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5">
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -915,26 +952,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99665D88-8ED1-4439-BE50-B1CCE7D6BE40}">
+  <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="48.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="33" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -945,7 +1042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -953,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -961,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="63">
+    <row r="7" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -969,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -977,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
@@ -985,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63">
+    <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -993,7 +1090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1001,7 +1098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1009,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5">
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1025,7 +1122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="47.25">
+    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
